--- a/Exel Dashboard.xlsx
+++ b/Exel Dashboard.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BCA96A-A831-4D9F-A62A-35B426D09B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F9CC81-A334-4330-8837-2F1E73A126EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{810B916D-8AC5-B94F-AAD8-02E834047D22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{810B916D-8AC5-B94F-AAD8-02E834047D22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
-    <sheet name="Inputs" sheetId="3" r:id="rId3"/>
-    <sheet name="Contacts" sheetId="4" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="3" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v5.0" hidden="1">Inputs!$G$12</definedName>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Argentina</t>
   </si>
@@ -100,73 +99,7 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Figures in $M</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Customer Satisfaction</t>
-  </si>
-  <si>
-    <t>Sales by country 2022</t>
-  </si>
-  <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>Availability (95%)</t>
-  </si>
-  <si>
-    <t>Service (53%)</t>
-  </si>
-  <si>
-    <t>Hygene (93%)</t>
-  </si>
-  <si>
-    <t>Quality (86%)</t>
-  </si>
-  <si>
-    <t>Speed (54%)</t>
   </si>
   <si>
     <t>Email</t>
@@ -191,33 +124,6 @@
   </si>
   <si>
     <t>Angel Garcia</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>Sales (M)</t>
-  </si>
-  <si>
-    <t>% Complete</t>
-  </si>
-  <si>
-    <t>Remainder</t>
-  </si>
-  <si>
-    <t>KPIs</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -347,15 +253,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,14 +285,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,79 +468,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -21227,220 +21103,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphic 6" descr="Envelope with solid fill">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4809F10-069F-4C2A-B59E-D61A9AE1BEBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171773" y="1812094"/>
-          <a:ext cx="469232" cy="457263"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201554</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>194937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>577658</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 15" descr="Question Mark with solid fill">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38F1747-8FA9-46CB-8DDC-DC19D06249F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="201554" y="2572377"/>
-          <a:ext cx="376104" cy="376104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>173518</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>86943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>644434</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>162452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94586AB0-EBF3-42C0-B2FF-6FBE90FF2F7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="173518" y="285063"/>
-          <a:ext cx="470916" cy="471749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>178527</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>36346</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>640081</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53624EA7-51DE-4D8D-AB92-9DCFFC307CAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="178527" y="1026946"/>
-          <a:ext cx="461554" cy="456195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171773</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>29014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>641005</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90037</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Graphic 6" descr="Envelope with solid fill">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
@@ -22626,7 +22288,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22688,7 +22350,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22750,7 +22412,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22812,7 +22474,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -23026,7 +22688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -23536,381 +23198,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C4E5-0920-4069-8325-ADD3681294C1}">
-  <dimension ref="A2:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D62819-44D1-EE4C-940E-0D3D0CCB2ED3}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" style="10"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="4"/>
+    <col min="2" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2543.9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="9">
-        <v>890.36500000000001</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6">
-        <f>D5/D6</f>
-        <v>0.84796666666666665</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="6">
-        <f>G5/G6</f>
-        <v>0.89036499999999996</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="6">
-        <f>J5/J6</f>
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6">
-        <f>100%-D7</f>
-        <v>0.15203333333333335</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6">
-        <f>100%-G7</f>
-        <v>0.10963500000000004</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="6">
-        <f>100%-J7</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2022</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>201.9</v>
-      </c>
-      <c r="E13">
-        <v>215.3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>953.3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>204.2</v>
-      </c>
-      <c r="E14">
-        <v>217.6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>432.4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>198.6</v>
-      </c>
-      <c r="E15">
-        <v>220.1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3">
-        <v>553.20000000000005</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>199.2</v>
-      </c>
-      <c r="E16">
-        <v>206.4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>445.1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>206.4</v>
-      </c>
-      <c r="E17">
-        <v>204.3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>425.1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>195.3</v>
-      </c>
-      <c r="E18">
-        <v>203</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>253.6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>192.4</v>
-      </c>
-      <c r="E19">
-        <v>201.5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>387.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>186.3</v>
-      </c>
-      <c r="E20">
-        <v>200.6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>194.2</v>
-      </c>
-      <c r="E21">
-        <v>210.6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>199</v>
-      </c>
-      <c r="E22">
-        <v>216.4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>205.2</v>
-      </c>
-      <c r="E23">
-        <v>222.3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>204.3</v>
-      </c>
-      <c r="E24">
-        <v>225.8</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23919,27 +23219,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D62819-44D1-EE4C-940E-0D3D0CCB2ED3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.796875" style="10"/>
-    <col min="2" max="16384" width="10.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC16DE6-AF43-5D41-92D8-941949992132}">
   <dimension ref="A2:K25"/>
   <sheetViews>
@@ -23947,7 +23226,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.3984375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" customWidth="1"/>
@@ -23961,490 +23240,490 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="14"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>56</v>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>46</v>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
-        <v>51</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>46</v>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
-        <v>52</v>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>46</v>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="18" t="s">
-        <v>49</v>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="11">
         <v>2543.9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="18" t="s">
-        <v>49</v>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="12">
         <v>890.36500000000001</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18" t="s">
-        <v>49</v>
+      <c r="I5" s="7"/>
+      <c r="J5" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="13">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="18" t="s">
-        <v>50</v>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <v>3000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="18" t="s">
-        <v>50</v>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="12">
         <v>1000</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18" t="s">
-        <v>50</v>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="18" t="s">
-        <v>48</v>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="14">
         <f>D5/D6</f>
         <v>0.84796666666666665</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18" t="s">
-        <v>48</v>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="14">
         <f>H5/H6</f>
         <v>0.89036499999999996</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18" t="s">
-        <v>48</v>
+      <c r="I7" s="7"/>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="14">
         <f>K5/K6</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="23" t="s">
-        <v>47</v>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
         <f>100%-D7</f>
         <v>0.15203333333333335</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="23" t="s">
-        <v>47</v>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="16">
         <f>100%-H7</f>
         <v>0.10963500000000004</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="23" t="s">
-        <v>47</v>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="16">
         <f>100%-K7</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="13" t="s">
-        <v>57</v>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="27" t="s">
-        <v>54</v>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="19" t="s">
+        <v>23</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>55</v>
+      <c r="H12" s="19" t="s">
+        <v>24</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="28" t="s">
-        <v>70</v>
+      <c r="I12" s="7"/>
+      <c r="J12" s="20" t="s">
+        <v>39</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>71</v>
+      <c r="K12" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="27" t="s">
-        <v>53</v>
+      <c r="C13" s="19" t="s">
+        <v>22</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="19">
         <v>2021</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="19">
         <v>2022</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="21">
         <v>1233.0999999999999</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>72</v>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="22">
         <v>0.54</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="15" t="s">
-        <v>58</v>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="7">
         <v>201.9</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <v>215.3</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="21">
         <v>633.29999999999995</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>73</v>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="22">
         <v>0.86</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="15" t="s">
-        <v>59</v>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <v>204.2</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="7">
         <v>217.6</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="21">
         <v>753.2</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>74</v>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="22">
         <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="15" t="s">
-        <v>60</v>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="7">
         <v>198.6</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="7">
         <v>220.1</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="21">
         <v>645.1</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>75</v>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="22">
         <v>0.53</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C17" s="15" t="s">
-        <v>61</v>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="7">
         <v>199.2</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="7">
         <v>206.4</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="21">
         <v>625.1</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>76</v>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="22">
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
-        <v>62</v>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="7">
         <v>206.4</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="7">
         <v>204.3</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="21">
         <v>453.6</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="15" t="s">
-        <v>63</v>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="7">
         <v>195.3</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="7">
         <v>203</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="21">
         <v>587.5</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="15" t="s">
-        <v>64</v>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="7">
         <v>192.4</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="7">
         <v>201.5</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C21" s="15" t="s">
-        <v>65</v>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="7">
         <v>186.3</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="7">
         <v>200.6</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="15" t="s">
-        <v>66</v>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="7">
         <v>194.2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="7">
         <v>210.6</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C23" s="15" t="s">
-        <v>67</v>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="7">
         <v>199</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="7">
         <v>216.4</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C24" s="15" t="s">
-        <v>68</v>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="7">
         <v>205.2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="7">
         <v>222.3</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C25" s="15" t="s">
-        <v>69</v>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="7">
         <v>204.3</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="7">
         <v>225.8</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C12:E12"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604A435B-AFC0-4775-ADA4-3BA01B02C73F}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="10"/>
+    <col min="1" max="1" width="10.796875" style="4"/>
     <col min="2" max="2" width="4.296875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="27.19921875" customWidth="1"/>
@@ -24452,97 +23731,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="C2" s="31" t="s">
-        <v>77</v>
+      <c r="A2" s="4"/>
+      <c r="C2" s="23" t="s">
+        <v>46</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>78</v>
+      <c r="D2" s="23" t="s">
+        <v>47</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>29</v>
+      <c r="E2" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>30</v>
+      <c r="D4" s="24" t="s">
+        <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>79</v>
+      <c r="E4" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>31</v>
+      <c r="D5" s="24" t="s">
+        <v>9</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>80</v>
+      <c r="E5" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="32" t="s">
-        <v>86</v>
+      <c r="C6" s="24" t="s">
+        <v>55</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>32</v>
+      <c r="D6" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>81</v>
+      <c r="E6" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>33</v>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>82</v>
+      <c r="E7" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>34</v>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>83</v>
+      <c r="E8" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>35</v>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>84</v>
+      <c r="E9" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>36</v>
+      <c r="D10" s="24" t="s">
+        <v>14</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>85</v>
+      <c r="E10" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
